--- a/server/Book1.xlsx
+++ b/server/Book1.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -424,16 +424,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>A7468</v>
+        <v>A710017</v>
       </c>
       <c r="B2" t="str">
-        <v>Nelson</v>
+        <v>Karl cabs</v>
       </c>
       <c r="C2" t="str">
-        <v>Jan 01 2023</v>
+        <v>Jan 02 2023</v>
       </c>
       <c r="D2" t="str">
-        <v>Feb 01 2023</v>
+        <v>Feb 02 2023</v>
       </c>
       <c r="E2" t="str">
         <v>MonthLy</v>
@@ -444,10 +444,10 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>A85046</v>
+        <v>A291043</v>
       </c>
       <c r="B3" t="str">
-        <v>Madam ezeal</v>
+        <v>Odly heh</v>
       </c>
       <c r="C3" t="str">
         <v>Jan 02 2023</v>
@@ -464,10 +464,10 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>A6351</v>
+        <v>A810978</v>
       </c>
       <c r="B4" t="str">
-        <v>Oriel Cabs</v>
+        <v>Lotlot cabs</v>
       </c>
       <c r="C4" t="str">
         <v>Jan 03 2023</v>
@@ -484,16 +484,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>A76805</v>
+        <v>A241062</v>
       </c>
       <c r="B5" t="str">
-        <v>Oliva cabs</v>
+        <v>Galdo</v>
       </c>
       <c r="C5" t="str">
-        <v>Jan 03 2023</v>
+        <v>Jan 04 2023</v>
       </c>
       <c r="D5" t="str">
-        <v>Feb 03 2023</v>
+        <v>Feb 04 2023</v>
       </c>
       <c r="E5" t="str">
         <v>MonthLy</v>
@@ -504,19 +504,19 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>A78092</v>
+        <v>A301021</v>
       </c>
       <c r="B6" t="str">
-        <v>Alberto curias</v>
+        <v>Danny dan</v>
       </c>
       <c r="C6" t="str">
-        <v>Jan 03 2023</v>
+        <v>Jan 04 2023</v>
       </c>
       <c r="D6" t="str">
-        <v>Feb 03 2023</v>
+        <v>Feb 04 2023</v>
       </c>
       <c r="E6" t="str">
-        <v>MonthLy</v>
+        <v>Monthly</v>
       </c>
       <c r="F6" t="str">
         <v>1200</v>
@@ -524,10 +524,10 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>A55135</v>
+        <v>A310490</v>
       </c>
       <c r="B7" t="str">
-        <v>Alvirus cabs</v>
+        <v>Kenken cabs</v>
       </c>
       <c r="C7" t="str">
         <v>Jan 05 2023</v>
@@ -544,16 +544,16 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>A51972</v>
+        <v>A271099</v>
       </c>
       <c r="B8" t="str">
-        <v>Rolly lucena</v>
+        <v>Lebrion</v>
       </c>
       <c r="C8" t="str">
-        <v>Jan 07 2023</v>
+        <v>Jan 05 2023</v>
       </c>
       <c r="D8" t="str">
-        <v>Feb 07 2023</v>
+        <v>Feb 05 2023</v>
       </c>
       <c r="E8" t="str">
         <v>MonthLy</v>
@@ -564,16 +564,16 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>A1434</v>
+        <v>A191070</v>
       </c>
       <c r="B9" t="str">
-        <v>Cabs Gilbert</v>
+        <v>Henry</v>
       </c>
       <c r="C9" t="str">
-        <v>Jan 10 2023</v>
+        <v>Jan 06 2023</v>
       </c>
       <c r="D9" t="str">
-        <v>Feb 10 2023</v>
+        <v>Feb 06 2023</v>
       </c>
       <c r="E9" t="str">
         <v>MonthLy</v>
@@ -584,16 +584,16 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>A4601</v>
+        <v>A201082</v>
       </c>
       <c r="B10" t="str">
-        <v xml:space="preserve">Lotlot </v>
+        <v>Weldo</v>
       </c>
       <c r="C10" t="str">
-        <v>Jan 10 2023</v>
+        <v>Jan 06 2023</v>
       </c>
       <c r="D10" t="str">
-        <v>Feb 10 2023</v>
+        <v>Feb 06 2023</v>
       </c>
       <c r="E10" t="str">
         <v>MonthLy</v>
@@ -604,10 +604,10 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>A48612</v>
+        <v>A010818</v>
       </c>
       <c r="B11" t="str">
-        <v>Reynald vergara</v>
+        <v>Nelson galapia</v>
       </c>
       <c r="C11" t="str">
         <v>Jan 10 2023</v>
@@ -624,16 +624,16 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>A9220</v>
+        <v>A110741</v>
       </c>
       <c r="B12" t="str">
-        <v>Albert Cabs</v>
+        <v>Albert cabs</v>
       </c>
       <c r="C12" t="str">
-        <v>Jan 11 2023</v>
+        <v>Jan 17 2023</v>
       </c>
       <c r="D12" t="str">
-        <v>Feb 11 2023</v>
+        <v>Feb 17 2023</v>
       </c>
       <c r="E12" t="str">
         <v>MonthLy</v>
@@ -644,16 +644,16 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>A5740</v>
+        <v>A210243</v>
       </c>
       <c r="B13" t="str">
-        <v>Karl Cabs</v>
+        <v>Niel galapia</v>
       </c>
       <c r="C13" t="str">
-        <v>Jan 16 2023</v>
+        <v>Jan 17 2023</v>
       </c>
       <c r="D13" t="str">
-        <v>Feb 16 2023</v>
+        <v>Feb 17 2023</v>
       </c>
       <c r="E13" t="str">
         <v>MonthLy</v>
@@ -664,16 +664,16 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>A7065</v>
+        <v>A410761</v>
       </c>
       <c r="B14" t="str">
-        <v>Lolito Maliglig</v>
+        <v>Oriel cabs</v>
       </c>
       <c r="C14" t="str">
-        <v>Jan 16 2023</v>
+        <v>Jan 17 2023</v>
       </c>
       <c r="D14" t="str">
-        <v>Feb 16 2023</v>
+        <v>Feb 17 2023</v>
       </c>
       <c r="E14" t="str">
         <v>MonthLy</v>
@@ -684,16 +684,16 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>A1611</v>
+        <v>A510065</v>
       </c>
       <c r="B15" t="str">
         <v>Klarence cabs</v>
       </c>
       <c r="C15" t="str">
-        <v>Jan 16 2023</v>
+        <v>Jan 17 2023</v>
       </c>
       <c r="D15" t="str">
-        <v>Feb 16 2023</v>
+        <v>Feb 17 2023</v>
       </c>
       <c r="E15" t="str">
         <v>MonthLy</v>
@@ -704,16 +704,16 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>A37559</v>
+        <v>A610275</v>
       </c>
       <c r="B16" t="str">
-        <v>Donaldy cepeda</v>
+        <v>Kabul afgha</v>
       </c>
       <c r="C16" t="str">
-        <v>Jan 16 2023</v>
+        <v>Jan 17 2023</v>
       </c>
       <c r="D16" t="str">
-        <v>Feb 16 2023</v>
+        <v>Feb 17 2023</v>
       </c>
       <c r="E16" t="str">
         <v>MonthLy</v>
@@ -724,16 +724,16 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>A40023</v>
+        <v>A910519</v>
       </c>
       <c r="B17" t="str">
-        <v>Betong vergara</v>
+        <v>Karlo cabs</v>
       </c>
       <c r="C17" t="str">
-        <v>Jan 16 2023</v>
+        <v>Jan 17 2023</v>
       </c>
       <c r="D17" t="str">
-        <v>Feb 16 2023</v>
+        <v>Feb 17 2023</v>
       </c>
       <c r="E17" t="str">
         <v>MonthLy</v>
@@ -744,16 +744,16 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>A72206</v>
+        <v>A101096</v>
       </c>
       <c r="B18" t="str">
-        <v>Albert lino</v>
+        <v>Albert cabs</v>
       </c>
       <c r="C18" t="str">
-        <v>Jan 16 2023</v>
+        <v>Jan 17 2023</v>
       </c>
       <c r="D18" t="str">
-        <v>Feb 16 2023</v>
+        <v>Feb 17 2023</v>
       </c>
       <c r="E18" t="str">
         <v>MonthLy</v>
@@ -764,16 +764,16 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>A62541</v>
+        <v>A111060</v>
       </c>
       <c r="B19" t="str">
-        <v>Edgar mercado</v>
+        <v>Oval cabs</v>
       </c>
       <c r="C19" t="str">
-        <v>Jan 16 2023</v>
+        <v>Jan 17 2023</v>
       </c>
       <c r="D19" t="str">
-        <v>Feb 16 2023</v>
+        <v>Feb 17 2023</v>
       </c>
       <c r="E19" t="str">
         <v>MonthLy</v>
@@ -784,16 +784,16 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>A52316</v>
+        <v>A121034</v>
       </c>
       <c r="B20" t="str">
-        <v>Lea cabs</v>
+        <v>Lilia</v>
       </c>
       <c r="C20" t="str">
-        <v>Jan 16 2023</v>
+        <v>Jan 17 2023</v>
       </c>
       <c r="D20" t="str">
-        <v>Feb 16 2023</v>
+        <v>Feb 17 2023</v>
       </c>
       <c r="E20" t="str">
         <v>MonthLy</v>
@@ -804,10 +804,10 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>A75910</v>
+        <v>A131025</v>
       </c>
       <c r="B21" t="str">
-        <v>Edna dan</v>
+        <v>Frits</v>
       </c>
       <c r="C21" t="str">
         <v>Jan 17 2023</v>
@@ -824,28 +824,468 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>A89328</v>
+        <v>A141004</v>
       </c>
       <c r="B22" t="str">
-        <v>Elva cabs</v>
+        <v>Tata</v>
       </c>
       <c r="C22" t="str">
-        <v>Jan 26 2023</v>
+        <v>Jan 17 2023</v>
       </c>
       <c r="D22" t="str">
-        <v>Feb 26 2023</v>
+        <v>Feb 17 2023</v>
       </c>
       <c r="E22" t="str">
         <v>MonthLy</v>
       </c>
       <c r="F22" t="str">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>A151088</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Serioyo</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Jan 17 2023</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Feb 17 2023</v>
+      </c>
+      <c r="E23" t="str">
+        <v>MonthLy</v>
+      </c>
+      <c r="F23" t="str">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>A161007</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Mario</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Jan 17 2023</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Feb 17 2023</v>
+      </c>
+      <c r="E24" t="str">
+        <v>MonthLy</v>
+      </c>
+      <c r="F24" t="str">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>A171082</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Weldel</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Jan 17 2023</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Feb 17 2023</v>
+      </c>
+      <c r="E25" t="str">
+        <v>MonthLy</v>
+      </c>
+      <c r="F25" t="str">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>A181041</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Dowdo</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Jan 17 2023</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Feb 17 2023</v>
+      </c>
+      <c r="E26" t="str">
+        <v>MonthLy</v>
+      </c>
+      <c r="F26" t="str">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>A211042</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Klarencexx</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Jan 17 2023</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Feb 17 2023</v>
+      </c>
+      <c r="E27" t="str">
+        <v>MonthLy</v>
+      </c>
+      <c r="F27" t="str">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>A221066</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Selbo dael</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Jan 17 2023</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Feb 17 2023</v>
+      </c>
+      <c r="E28" t="str">
+        <v>MonthLy</v>
+      </c>
+      <c r="F28" t="str">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>A231085</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Quearto hshs</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Jan 17 2023</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Feb 17 2023</v>
+      </c>
+      <c r="E29" t="str">
+        <v>MonthLy</v>
+      </c>
+      <c r="F29" t="str">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>A251006</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Palder hs</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Jan 17 2023</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Feb 17 2023</v>
+      </c>
+      <c r="E30" t="str">
+        <v>MonthLy</v>
+      </c>
+      <c r="F30" t="str">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>A261097</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Smith dge</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Jan 17 2023</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Feb 17 2023</v>
+      </c>
+      <c r="E31" t="str">
+        <v>MonthLy</v>
+      </c>
+      <c r="F31" t="str">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>A281047</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Hehkoa</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Jan 17 2023</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Feb 17 2023</v>
+      </c>
+      <c r="E32" t="str">
+        <v>MonthLy</v>
+      </c>
+      <c r="F32" t="str">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>A311010</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Djdjjd</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Jan 18 2023</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Feb 18 2023</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F33" t="str">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>A321015</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Dldldl</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Jan 18 2023</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Feb 18 2023</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F34" t="str">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>A331063</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Dsadsadsa</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Jan 18 2023</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Feb 18 2023</v>
+      </c>
+      <c r="E35" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F35" t="str">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>A341067</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Wqwdwsdqw</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Jan 18 2023</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Feb 18 2023</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F36" t="str">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>A351049</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Qwqwqwq</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Jan 18 2023</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Feb 18 2023</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F37" t="str">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>A361056</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Qwweeqw</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Jan 18 2023</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Feb 18 2023</v>
+      </c>
+      <c r="E38" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F38" t="str">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>A371019</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Qwqdwdsa</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Jan 18 2023</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Feb 18 2023</v>
+      </c>
+      <c r="E39" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F39" t="str">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>A381011</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Asdda</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Jan 18 2023</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Feb 18 2023</v>
+      </c>
+      <c r="E40" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F40" t="str">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>A391007</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Dsadasa</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Jan 18 2023</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Feb 18 2023</v>
+      </c>
+      <c r="E41" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F41" t="str">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>A401085</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Adsdsa</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Jan 18 2023</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Feb 18 2023</v>
+      </c>
+      <c r="E42" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F42" t="str">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>A401012</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Wqwwdsasda</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Jan 18 2023</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Feb 18 2023</v>
+      </c>
+      <c r="E43" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F43" t="str">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>A421008</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Ggggg</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Jan 19 2023</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Feb 19 2023</v>
+      </c>
+      <c r="E44" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F44" t="str">
         <v>1200</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F22"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F44"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/Book1.xlsx
+++ b/server/Book1.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -424,124 +424,965 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>A110896</v>
+        <v>A110772</v>
       </c>
       <c r="B2" t="str">
-        <v>Albert cabs71</v>
+        <v>Niel Berto</v>
       </c>
       <c r="C2" t="str">
-        <v>Jan 26 2023</v>
+        <v>Feb 2 2023</v>
       </c>
       <c r="D2" t="str">
-        <v>Apr 26 2023</v>
+        <v>Mar 02 2023</v>
       </c>
       <c r="E2" t="str">
         <v>Monthly</v>
       </c>
       <c r="F2" t="str">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G2" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" t="str">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="I2" t="str">
-        <v>2023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>A110282</v>
+        <v>A110626</v>
       </c>
       <c r="B3" t="str">
-        <v>Albert cabs72</v>
+        <v>Nelson Galapia</v>
       </c>
       <c r="C3" t="str">
-        <v>Jan 10 2023</v>
+        <v>Feb 2 2023</v>
       </c>
       <c r="D3" t="str">
-        <v>Mar 10 2023</v>
+        <v>Apr 02 2023</v>
       </c>
       <c r="E3" t="str">
         <v>Monthly</v>
       </c>
       <c r="F3" t="str">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="G3" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" t="str">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I3" t="str">
-        <v>2023</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>A110789</v>
+        <v>A110599</v>
       </c>
       <c r="B4" t="str">
-        <v>Karl cabs</v>
+        <v>Luszo Phil</v>
       </c>
       <c r="C4" t="str">
-        <v>Jan 9 2023</v>
+        <v>Feb 4 2023</v>
       </c>
       <c r="D4" t="str">
-        <v>Mar 09 2023</v>
+        <v>Mar 04 2023</v>
       </c>
       <c r="E4" t="str">
         <v>Monthly</v>
       </c>
       <c r="F4" t="str">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="G4" t="str">
         <v>2</v>
       </c>
       <c r="H4" t="str">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I4" t="str">
-        <v>2023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>A110295</v>
+        <v>A110071</v>
       </c>
       <c r="B5" t="str">
-        <v>Lino cabs</v>
+        <v>John Bert</v>
       </c>
       <c r="C5" t="str">
-        <v>Jan 26 2023</v>
+        <v>Feb 4 2023</v>
       </c>
       <c r="D5" t="str">
-        <v>Feb 26 2023</v>
+        <v>Mar 04 2023</v>
       </c>
       <c r="E5" t="str">
         <v>Monthly</v>
       </c>
       <c r="F5" t="str">
-        <v>1200</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>26</v>
-      </c>
-      <c r="I5">
-        <v>2023</v>
+        <v>1000</v>
+      </c>
+      <c r="G5" t="str">
+        <v>2</v>
+      </c>
+      <c r="H5" t="str">
+        <v>4</v>
+      </c>
+      <c r="I5" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>A110751</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Glen Bush</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Feb 4 2023</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Mar 04 2023</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F6" t="str">
+        <v>1000</v>
+      </c>
+      <c r="G6" t="str">
+        <v>2</v>
+      </c>
+      <c r="H6" t="str">
+        <v>4</v>
+      </c>
+      <c r="I6" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>A110476</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Kelvin Dough</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Feb 4 2023</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Mar 04 2023</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F7" t="str">
+        <v>1000</v>
+      </c>
+      <c r="G7" t="str">
+        <v>2</v>
+      </c>
+      <c r="H7" t="str">
+        <v>4</v>
+      </c>
+      <c r="I7" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>A110105</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Bibo Toke</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Feb 4 2023</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Mar 04 2023</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F8" t="str">
+        <v>1000</v>
+      </c>
+      <c r="G8" t="str">
+        <v>2</v>
+      </c>
+      <c r="H8" t="str">
+        <v>4</v>
+      </c>
+      <c r="I8" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>A110899</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Jacky Phow</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Feb 4 2023</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Mar 04 2023</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F9" t="str">
+        <v>1000</v>
+      </c>
+      <c r="G9" t="str">
+        <v>2</v>
+      </c>
+      <c r="H9" t="str">
+        <v>4</v>
+      </c>
+      <c r="I9" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>A110927</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Kehrk Dohe</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Feb 4 2023</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Mar 04 2023</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F10" t="str">
+        <v>1000</v>
+      </c>
+      <c r="G10" t="str">
+        <v>2</v>
+      </c>
+      <c r="H10" t="str">
+        <v>4</v>
+      </c>
+      <c r="I10" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>A110958</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Glenda</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Feb 4 2023</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Mar 04 2023</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F11" t="str">
+        <v>1000</v>
+      </c>
+      <c r="G11" t="str">
+        <v>2</v>
+      </c>
+      <c r="H11" t="str">
+        <v>4</v>
+      </c>
+      <c r="I11" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>A110032</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Oriel</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Feb 4 2023</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Mar 04 2023</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F12" t="str">
+        <v>1000</v>
+      </c>
+      <c r="G12" t="str">
+        <v>2</v>
+      </c>
+      <c r="H12" t="str">
+        <v>4</v>
+      </c>
+      <c r="I12" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>A110302</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Klarence</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Feb 4 2023</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Mar 04 2023</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F13" t="str">
+        <v>1000</v>
+      </c>
+      <c r="G13" t="str">
+        <v>2</v>
+      </c>
+      <c r="H13" t="str">
+        <v>4</v>
+      </c>
+      <c r="I13" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>A110174</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Karlo</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Feb 4 2023</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Mar 04 2023</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F14" t="str">
+        <v>1000</v>
+      </c>
+      <c r="G14" t="str">
+        <v>2</v>
+      </c>
+      <c r="H14" t="str">
+        <v>4</v>
+      </c>
+      <c r="I14" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>A110612</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Calbo</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Feb 4 2023</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Mar 04 2023</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F15" t="str">
+        <v>1000</v>
+      </c>
+      <c r="G15" t="str">
+        <v>2</v>
+      </c>
+      <c r="H15" t="str">
+        <v>4</v>
+      </c>
+      <c r="I15" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>A110089</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Arron</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Feb 4 2023</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Mar 04 2023</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F16" t="str">
+        <v>1000</v>
+      </c>
+      <c r="G16" t="str">
+        <v>2</v>
+      </c>
+      <c r="H16" t="str">
+        <v>4</v>
+      </c>
+      <c r="I16" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>A110139</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Kaloy</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Feb 4 2023</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Mar 04 2023</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F17" t="str">
+        <v>1000</v>
+      </c>
+      <c r="G17" t="str">
+        <v>2</v>
+      </c>
+      <c r="H17" t="str">
+        <v>4</v>
+      </c>
+      <c r="I17" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>A110350</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Bayaw</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Feb 4 2023</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Mar 04 2023</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F18" t="str">
+        <v>1000</v>
+      </c>
+      <c r="G18" t="str">
+        <v>2</v>
+      </c>
+      <c r="H18" t="str">
+        <v>4</v>
+      </c>
+      <c r="I18" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>A110584</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Kerloa</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Feb 4 2023</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Mar 04 2023</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F19" t="str">
+        <v>1000</v>
+      </c>
+      <c r="G19" t="str">
+        <v>2</v>
+      </c>
+      <c r="H19" t="str">
+        <v>4</v>
+      </c>
+      <c r="I19" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>A110261</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Kelvin</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Feb 4 2023</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Mar 04 2023</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F20" t="str">
+        <v>1000</v>
+      </c>
+      <c r="G20" t="str">
+        <v>2</v>
+      </c>
+      <c r="H20" t="str">
+        <v>4</v>
+      </c>
+      <c r="I20" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>A110932</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Isaach</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Feb 4 2023</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Mar 04 2023</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F21" t="str">
+        <v>1000</v>
+      </c>
+      <c r="G21" t="str">
+        <v>2</v>
+      </c>
+      <c r="H21" t="str">
+        <v>4</v>
+      </c>
+      <c r="I21" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>A110739</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Rembo</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Feb 4 2023</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Mar 04 2023</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F22" t="str">
+        <v>1000</v>
+      </c>
+      <c r="G22" t="str">
+        <v>2</v>
+      </c>
+      <c r="H22" t="str">
+        <v>4</v>
+      </c>
+      <c r="I22" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>A110860</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Rambo</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Feb 4 2023</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Mar 04 2023</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F23" t="str">
+        <v>1000</v>
+      </c>
+      <c r="G23" t="str">
+        <v>2</v>
+      </c>
+      <c r="H23" t="str">
+        <v>4</v>
+      </c>
+      <c r="I23" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>A110325</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Calslita</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Feb 4 2023</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Mar 04 2023</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F24" t="str">
+        <v>1000</v>
+      </c>
+      <c r="G24" t="str">
+        <v>2</v>
+      </c>
+      <c r="H24" t="str">
+        <v>4</v>
+      </c>
+      <c r="I24" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>A110973</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Alvdoa</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Feb 4 2023</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Mar 04 2023</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F25" t="str">
+        <v>1000</v>
+      </c>
+      <c r="G25" t="str">
+        <v>2</v>
+      </c>
+      <c r="H25" t="str">
+        <v>4</v>
+      </c>
+      <c r="I25" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>A110221</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Aboda</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Feb 4 2023</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Mar 04 2023</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F26" t="str">
+        <v>1000</v>
+      </c>
+      <c r="G26" t="str">
+        <v>2</v>
+      </c>
+      <c r="H26" t="str">
+        <v>4</v>
+      </c>
+      <c r="I26" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>A110215</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Selva</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Feb 4 2023</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Mar 04 2023</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F27" t="str">
+        <v>1000</v>
+      </c>
+      <c r="G27" t="str">
+        <v>2</v>
+      </c>
+      <c r="H27" t="str">
+        <v>4</v>
+      </c>
+      <c r="I27" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>A110894</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Dgete</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Feb 4 2023</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Mar 04 2023</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F28" t="str">
+        <v>1000</v>
+      </c>
+      <c r="G28" t="str">
+        <v>2</v>
+      </c>
+      <c r="H28" t="str">
+        <v>4</v>
+      </c>
+      <c r="I28" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>A110975</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Albertdsgd</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Feb 4 2023</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Mar 04 2023</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F29" t="str">
+        <v>1000</v>
+      </c>
+      <c r="G29" t="str">
+        <v>2</v>
+      </c>
+      <c r="H29" t="str">
+        <v>4</v>
+      </c>
+      <c r="I29" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>A110886</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Dodong</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Feb 4 2023</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Mar 04 2023</v>
+      </c>
+      <c r="E30" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F30" t="str">
+        <v>1000</v>
+      </c>
+      <c r="G30" t="str">
+        <v>2</v>
+      </c>
+      <c r="H30" t="str">
+        <v>4</v>
+      </c>
+      <c r="I30" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>A110863</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Dante</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Feb 4 2023</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Mar 04 2023</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F31" t="str">
+        <v>1000</v>
+      </c>
+      <c r="G31" t="str">
+        <v>2</v>
+      </c>
+      <c r="H31" t="str">
+        <v>4</v>
+      </c>
+      <c r="I31" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>A110264</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Dannny</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Feb 4 2023</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Mar 04 2023</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F32" t="str">
+        <v>1000</v>
+      </c>
+      <c r="G32" t="str">
+        <v>2</v>
+      </c>
+      <c r="H32" t="str">
+        <v>4</v>
+      </c>
+      <c r="I32" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>A110145</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Kenekennene</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Feb 4 2023</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Mar 04 2023</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F33" t="str">
+        <v>1000</v>
+      </c>
+      <c r="G33" t="str">
+        <v>2</v>
+      </c>
+      <c r="H33" t="str">
+        <v>4</v>
+      </c>
+      <c r="I33" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>A110465</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Derotg</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Feb 4 2023</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Mar 04 2023</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="F34">
+        <v>1000</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="I34" t="str">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I34"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/Book1.xlsx
+++ b/server/Book1.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -424,115 +424,115 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>A110772</v>
+        <v>A110593</v>
       </c>
       <c r="B2" t="str">
-        <v>Niel Berto</v>
+        <v>Albert Cabs</v>
       </c>
       <c r="C2" t="str">
-        <v>Feb 2 2023</v>
+        <v>Feb 1 2023</v>
       </c>
       <c r="D2" t="str">
-        <v>Mar 02 2023</v>
+        <v>May 01 2023</v>
       </c>
       <c r="E2" t="str">
         <v>Monthly</v>
       </c>
       <c r="F2" t="str">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G2" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H2" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>A110626</v>
+        <v>A110025</v>
       </c>
       <c r="B3" t="str">
-        <v>Nelson Galapia</v>
+        <v>Oriel Cabs</v>
       </c>
       <c r="C3" t="str">
-        <v>Feb 2 2023</v>
+        <v>Feb 5 2023</v>
       </c>
       <c r="D3" t="str">
-        <v>Apr 02 2023</v>
+        <v>Mar 05 2023</v>
       </c>
       <c r="E3" t="str">
         <v>Monthly</v>
       </c>
       <c r="F3" t="str">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="G3" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" t="str">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I3" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>A110599</v>
+        <v>A110348</v>
       </c>
       <c r="B4" t="str">
-        <v>Luszo Phil</v>
+        <v>Robert Cabs</v>
       </c>
       <c r="C4" t="str">
-        <v>Feb 4 2023</v>
+        <v>Feb 5 2023</v>
       </c>
       <c r="D4" t="str">
-        <v>Mar 04 2023</v>
+        <v>May 05 2023</v>
       </c>
       <c r="E4" t="str">
         <v>Monthly</v>
       </c>
       <c r="F4" t="str">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="G4" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H4" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I4" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>A110071</v>
+        <v>A110808</v>
       </c>
       <c r="B5" t="str">
-        <v>John Bert</v>
+        <v>John Cabs</v>
       </c>
       <c r="C5" t="str">
-        <v>Feb 4 2023</v>
+        <v>Feb 5 2023</v>
       </c>
       <c r="D5" t="str">
-        <v>Mar 04 2023</v>
+        <v>Mar 05 2023</v>
       </c>
       <c r="E5" t="str">
         <v>Monthly</v>
       </c>
       <c r="F5" t="str">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="G5" t="str">
         <v>2</v>
       </c>
       <c r="H5" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I5" t="str">
         <v>0</v>
@@ -540,28 +540,28 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>A110751</v>
+        <v>A110591</v>
       </c>
       <c r="B6" t="str">
-        <v>Glen Bush</v>
+        <v>Kennieth Cabs</v>
       </c>
       <c r="C6" t="str">
-        <v>Feb 4 2023</v>
+        <v>Feb 2 2023</v>
       </c>
       <c r="D6" t="str">
-        <v>Mar 04 2023</v>
+        <v>Apr 02 2023</v>
       </c>
       <c r="E6" t="str">
         <v>Monthly</v>
       </c>
       <c r="F6" t="str">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="G6" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6" t="str">
         <v>0</v>
@@ -569,28 +569,28 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>A110476</v>
+        <v>A110232</v>
       </c>
       <c r="B7" t="str">
-        <v>Kelvin Dough</v>
+        <v>Albertcabsu</v>
       </c>
       <c r="C7" t="str">
-        <v>Feb 4 2023</v>
+        <v>Feb 3 2023</v>
       </c>
       <c r="D7" t="str">
-        <v>Mar 04 2023</v>
+        <v>Mar 03 2023</v>
       </c>
       <c r="E7" t="str">
         <v>Monthly</v>
       </c>
       <c r="F7" t="str">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="G7" t="str">
         <v>2</v>
       </c>
       <c r="H7" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7" t="str">
         <v>0</v>
@@ -598,28 +598,28 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>A110105</v>
+        <v>A110221</v>
       </c>
       <c r="B8" t="str">
-        <v>Bibo Toke</v>
+        <v>John Moe</v>
       </c>
       <c r="C8" t="str">
-        <v>Feb 4 2023</v>
+        <v>Feb 6 2023</v>
       </c>
       <c r="D8" t="str">
-        <v>Mar 04 2023</v>
+        <v>Mar 06 2023</v>
       </c>
       <c r="E8" t="str">
         <v>Monthly</v>
       </c>
       <c r="F8" t="str">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="G8" t="str">
         <v>2</v>
       </c>
       <c r="H8" t="str">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I8" t="str">
         <v>0</v>
@@ -627,28 +627,28 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>A110899</v>
+        <v>A110534</v>
       </c>
       <c r="B9" t="str">
-        <v>Jacky Phow</v>
+        <v>Reynald Bulb</v>
       </c>
       <c r="C9" t="str">
-        <v>Feb 4 2023</v>
+        <v>Feb 6 2023</v>
       </c>
       <c r="D9" t="str">
-        <v>Mar 04 2023</v>
+        <v>Mar 06 2023</v>
       </c>
       <c r="E9" t="str">
         <v>Monthly</v>
       </c>
       <c r="F9" t="str">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="G9" t="str">
         <v>2</v>
       </c>
       <c r="H9" t="str">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I9" t="str">
         <v>0</v>
@@ -656,28 +656,28 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>A110927</v>
+        <v>A110597</v>
       </c>
       <c r="B10" t="str">
-        <v>Kehrk Dohe</v>
+        <v>Nickol Kaiyo</v>
       </c>
       <c r="C10" t="str">
-        <v>Feb 4 2023</v>
+        <v>Feb 6 2023</v>
       </c>
       <c r="D10" t="str">
-        <v>Mar 04 2023</v>
+        <v>Mar 06 2023</v>
       </c>
       <c r="E10" t="str">
         <v>Monthly</v>
       </c>
       <c r="F10" t="str">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="G10" t="str">
         <v>2</v>
       </c>
       <c r="H10" t="str">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I10" t="str">
         <v>0</v>
@@ -685,28 +685,28 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>A110958</v>
+        <v>A110181</v>
       </c>
       <c r="B11" t="str">
-        <v>Glenda</v>
+        <v>Elgo Tan</v>
       </c>
       <c r="C11" t="str">
-        <v>Feb 4 2023</v>
+        <v>Feb 6 2023</v>
       </c>
       <c r="D11" t="str">
-        <v>Mar 04 2023</v>
+        <v>Mar 06 2023</v>
       </c>
       <c r="E11" t="str">
         <v>Monthly</v>
       </c>
       <c r="F11" t="str">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="G11" t="str">
         <v>2</v>
       </c>
       <c r="H11" t="str">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I11" t="str">
         <v>0</v>
@@ -714,28 +714,28 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>A110032</v>
+        <v>A110973</v>
       </c>
       <c r="B12" t="str">
-        <v>Oriel</v>
+        <v>Loe Pan</v>
       </c>
       <c r="C12" t="str">
-        <v>Feb 4 2023</v>
+        <v>Feb 6 2023</v>
       </c>
       <c r="D12" t="str">
-        <v>Mar 04 2023</v>
+        <v>Mar 06 2023</v>
       </c>
       <c r="E12" t="str">
         <v>Monthly</v>
       </c>
       <c r="F12" t="str">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="G12" t="str">
         <v>2</v>
       </c>
       <c r="H12" t="str">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I12" t="str">
         <v>0</v>
@@ -743,25 +743,25 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>A110302</v>
+        <v>A110105</v>
       </c>
       <c r="B13" t="str">
-        <v>Klarence</v>
+        <v>Dick Dickol</v>
       </c>
       <c r="C13" t="str">
-        <v>Feb 4 2023</v>
+        <v>Jan 4 2023</v>
       </c>
       <c r="D13" t="str">
-        <v>Mar 04 2023</v>
+        <v>Feb 04 2023</v>
       </c>
       <c r="E13" t="str">
         <v>Monthly</v>
       </c>
       <c r="F13" t="str">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="G13" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" t="str">
         <v>4</v>
@@ -772,28 +772,28 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>A110174</v>
+        <v>A110068</v>
       </c>
       <c r="B14" t="str">
-        <v>Karlo</v>
+        <v>Jurma Jeom</v>
       </c>
       <c r="C14" t="str">
-        <v>Feb 4 2023</v>
+        <v>Feb 6 2023</v>
       </c>
       <c r="D14" t="str">
-        <v>Mar 04 2023</v>
+        <v>Mar 06 2023</v>
       </c>
       <c r="E14" t="str">
         <v>Monthly</v>
       </c>
       <c r="F14" t="str">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="G14" t="str">
         <v>2</v>
       </c>
       <c r="H14" t="str">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I14" t="str">
         <v>0</v>
@@ -801,28 +801,28 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>A110612</v>
+        <v>A110358</v>
       </c>
       <c r="B15" t="str">
-        <v>Calbo</v>
+        <v>Keller Kim</v>
       </c>
       <c r="C15" t="str">
-        <v>Feb 4 2023</v>
+        <v>Feb 6 2023</v>
       </c>
       <c r="D15" t="str">
-        <v>Mar 04 2023</v>
+        <v>Mar 06 2023</v>
       </c>
       <c r="E15" t="str">
         <v>Monthly</v>
       </c>
       <c r="F15" t="str">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="G15" t="str">
         <v>2</v>
       </c>
       <c r="H15" t="str">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I15" t="str">
         <v>0</v>
@@ -830,28 +830,28 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>A110089</v>
+        <v>A110837</v>
       </c>
       <c r="B16" t="str">
-        <v>Arron</v>
+        <v>Holder Koa</v>
       </c>
       <c r="C16" t="str">
-        <v>Feb 4 2023</v>
+        <v>Feb 6 2023</v>
       </c>
       <c r="D16" t="str">
-        <v>Mar 04 2023</v>
+        <v>Mar 06 2023</v>
       </c>
       <c r="E16" t="str">
         <v>Monthly</v>
       </c>
       <c r="F16" t="str">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="G16" t="str">
         <v>2</v>
       </c>
       <c r="H16" t="str">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I16" t="str">
         <v>0</v>
@@ -859,28 +859,28 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>A110139</v>
+        <v>A110919</v>
       </c>
       <c r="B17" t="str">
-        <v>Kaloy</v>
+        <v>Joel Jag</v>
       </c>
       <c r="C17" t="str">
-        <v>Feb 4 2023</v>
+        <v>Feb 6 2023</v>
       </c>
       <c r="D17" t="str">
-        <v>Mar 04 2023</v>
+        <v>Mar 06 2023</v>
       </c>
       <c r="E17" t="str">
         <v>Monthly</v>
       </c>
       <c r="F17" t="str">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="G17" t="str">
         <v>2</v>
       </c>
       <c r="H17" t="str">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I17" t="str">
         <v>0</v>
@@ -888,28 +888,28 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>A110350</v>
+        <v>A110510</v>
       </c>
       <c r="B18" t="str">
-        <v>Bayaw</v>
+        <v>Joey Lamp</v>
       </c>
       <c r="C18" t="str">
-        <v>Feb 4 2023</v>
+        <v>Feb 6 2023</v>
       </c>
       <c r="D18" t="str">
-        <v>Mar 04 2023</v>
+        <v>Mar 06 2023</v>
       </c>
       <c r="E18" t="str">
         <v>Monthly</v>
       </c>
       <c r="F18" t="str">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="G18" t="str">
         <v>2</v>
       </c>
       <c r="H18" t="str">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I18" t="str">
         <v>0</v>
@@ -917,28 +917,28 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>A110584</v>
+        <v>A110355</v>
       </c>
       <c r="B19" t="str">
-        <v>Kerloa</v>
+        <v>Nick Nuks</v>
       </c>
       <c r="C19" t="str">
-        <v>Feb 4 2023</v>
+        <v>Feb 6 2023</v>
       </c>
       <c r="D19" t="str">
-        <v>Mar 04 2023</v>
+        <v>Mar 06 2023</v>
       </c>
       <c r="E19" t="str">
         <v>Monthly</v>
       </c>
       <c r="F19" t="str">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="G19" t="str">
         <v>2</v>
       </c>
       <c r="H19" t="str">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I19" t="str">
         <v>0</v>
@@ -946,28 +946,28 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>A110261</v>
+        <v>A110501</v>
       </c>
       <c r="B20" t="str">
-        <v>Kelvin</v>
+        <v>Rick Rock</v>
       </c>
       <c r="C20" t="str">
-        <v>Feb 4 2023</v>
+        <v>Feb 6 2023</v>
       </c>
       <c r="D20" t="str">
-        <v>Mar 04 2023</v>
+        <v>Mar 06 2023</v>
       </c>
       <c r="E20" t="str">
         <v>Monthly</v>
       </c>
       <c r="F20" t="str">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="G20" t="str">
         <v>2</v>
       </c>
       <c r="H20" t="str">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I20" t="str">
         <v>0</v>
@@ -975,28 +975,28 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>A110932</v>
+        <v>A110431</v>
       </c>
       <c r="B21" t="str">
-        <v>Isaach</v>
+        <v>Karl Kole</v>
       </c>
       <c r="C21" t="str">
-        <v>Feb 4 2023</v>
+        <v>Feb 6 2023</v>
       </c>
       <c r="D21" t="str">
-        <v>Mar 04 2023</v>
+        <v>Mar 06 2023</v>
       </c>
       <c r="E21" t="str">
         <v>Monthly</v>
       </c>
       <c r="F21" t="str">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="G21" t="str">
         <v>2</v>
       </c>
       <c r="H21" t="str">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I21" t="str">
         <v>0</v>
@@ -1004,28 +1004,28 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>A110739</v>
+        <v>A110467</v>
       </c>
       <c r="B22" t="str">
-        <v>Rembo</v>
+        <v>Kenbal Dean</v>
       </c>
       <c r="C22" t="str">
-        <v>Feb 4 2023</v>
+        <v>Feb 6 2023</v>
       </c>
       <c r="D22" t="str">
-        <v>Mar 04 2023</v>
+        <v>Mar 06 2023</v>
       </c>
       <c r="E22" t="str">
         <v>Monthly</v>
       </c>
       <c r="F22" t="str">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="G22" t="str">
         <v>2</v>
       </c>
       <c r="H22" t="str">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I22" t="str">
         <v>0</v>
@@ -1033,28 +1033,28 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>A110860</v>
+        <v>A110710</v>
       </c>
       <c r="B23" t="str">
-        <v>Rambo</v>
+        <v>Kevin Loeer</v>
       </c>
       <c r="C23" t="str">
-        <v>Feb 4 2023</v>
+        <v>Feb 6 2023</v>
       </c>
       <c r="D23" t="str">
-        <v>Mar 04 2023</v>
+        <v>Mar 06 2023</v>
       </c>
       <c r="E23" t="str">
         <v>Monthly</v>
       </c>
       <c r="F23" t="str">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="G23" t="str">
         <v>2</v>
       </c>
       <c r="H23" t="str">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I23" t="str">
         <v>0</v>
@@ -1062,28 +1062,28 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>A110325</v>
+        <v>A110809</v>
       </c>
       <c r="B24" t="str">
-        <v>Calslita</v>
+        <v>Klarence Doe</v>
       </c>
       <c r="C24" t="str">
-        <v>Feb 4 2023</v>
+        <v>Feb 6 2023</v>
       </c>
       <c r="D24" t="str">
-        <v>Mar 04 2023</v>
+        <v>Mar 06 2023</v>
       </c>
       <c r="E24" t="str">
         <v>Monthly</v>
       </c>
       <c r="F24" t="str">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="G24" t="str">
         <v>2</v>
       </c>
       <c r="H24" t="str">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I24" t="str">
         <v>0</v>
@@ -1091,298 +1091,37 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>A110973</v>
+        <v>A110692</v>
       </c>
       <c r="B25" t="str">
-        <v>Alvdoa</v>
+        <v>Gabb Aaa</v>
       </c>
       <c r="C25" t="str">
-        <v>Feb 4 2023</v>
+        <v>Feb 6 2023</v>
       </c>
       <c r="D25" t="str">
-        <v>Mar 04 2023</v>
+        <v>Mar 06 2023</v>
       </c>
       <c r="E25" t="str">
-        <v>Monthly</v>
+        <v>weekly</v>
       </c>
       <c r="F25" t="str">
-        <v>1000</v>
-      </c>
-      <c r="G25" t="str">
-        <v>2</v>
-      </c>
-      <c r="H25" t="str">
-        <v>4</v>
+        <v>1300</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
       </c>
       <c r="I25" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>A110221</v>
-      </c>
-      <c r="B26" t="str">
-        <v>Aboda</v>
-      </c>
-      <c r="C26" t="str">
-        <v>Feb 4 2023</v>
-      </c>
-      <c r="D26" t="str">
-        <v>Mar 04 2023</v>
-      </c>
-      <c r="E26" t="str">
-        <v>Monthly</v>
-      </c>
-      <c r="F26" t="str">
-        <v>1000</v>
-      </c>
-      <c r="G26" t="str">
-        <v>2</v>
-      </c>
-      <c r="H26" t="str">
-        <v>4</v>
-      </c>
-      <c r="I26" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>A110215</v>
-      </c>
-      <c r="B27" t="str">
-        <v>Selva</v>
-      </c>
-      <c r="C27" t="str">
-        <v>Feb 4 2023</v>
-      </c>
-      <c r="D27" t="str">
-        <v>Mar 04 2023</v>
-      </c>
-      <c r="E27" t="str">
-        <v>Monthly</v>
-      </c>
-      <c r="F27" t="str">
-        <v>1000</v>
-      </c>
-      <c r="G27" t="str">
-        <v>2</v>
-      </c>
-      <c r="H27" t="str">
-        <v>4</v>
-      </c>
-      <c r="I27" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>A110894</v>
-      </c>
-      <c r="B28" t="str">
-        <v>Dgete</v>
-      </c>
-      <c r="C28" t="str">
-        <v>Feb 4 2023</v>
-      </c>
-      <c r="D28" t="str">
-        <v>Mar 04 2023</v>
-      </c>
-      <c r="E28" t="str">
-        <v>Monthly</v>
-      </c>
-      <c r="F28" t="str">
-        <v>1000</v>
-      </c>
-      <c r="G28" t="str">
-        <v>2</v>
-      </c>
-      <c r="H28" t="str">
-        <v>4</v>
-      </c>
-      <c r="I28" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>A110975</v>
-      </c>
-      <c r="B29" t="str">
-        <v>Albertdsgd</v>
-      </c>
-      <c r="C29" t="str">
-        <v>Feb 4 2023</v>
-      </c>
-      <c r="D29" t="str">
-        <v>Mar 04 2023</v>
-      </c>
-      <c r="E29" t="str">
-        <v>Monthly</v>
-      </c>
-      <c r="F29" t="str">
-        <v>1000</v>
-      </c>
-      <c r="G29" t="str">
-        <v>2</v>
-      </c>
-      <c r="H29" t="str">
-        <v>4</v>
-      </c>
-      <c r="I29" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>A110886</v>
-      </c>
-      <c r="B30" t="str">
-        <v>Dodong</v>
-      </c>
-      <c r="C30" t="str">
-        <v>Feb 4 2023</v>
-      </c>
-      <c r="D30" t="str">
-        <v>Mar 04 2023</v>
-      </c>
-      <c r="E30" t="str">
-        <v>Monthly</v>
-      </c>
-      <c r="F30" t="str">
-        <v>1000</v>
-      </c>
-      <c r="G30" t="str">
-        <v>2</v>
-      </c>
-      <c r="H30" t="str">
-        <v>4</v>
-      </c>
-      <c r="I30" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>A110863</v>
-      </c>
-      <c r="B31" t="str">
-        <v>Dante</v>
-      </c>
-      <c r="C31" t="str">
-        <v>Feb 4 2023</v>
-      </c>
-      <c r="D31" t="str">
-        <v>Mar 04 2023</v>
-      </c>
-      <c r="E31" t="str">
-        <v>Monthly</v>
-      </c>
-      <c r="F31" t="str">
-        <v>1000</v>
-      </c>
-      <c r="G31" t="str">
-        <v>2</v>
-      </c>
-      <c r="H31" t="str">
-        <v>4</v>
-      </c>
-      <c r="I31" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>A110264</v>
-      </c>
-      <c r="B32" t="str">
-        <v>Dannny</v>
-      </c>
-      <c r="C32" t="str">
-        <v>Feb 4 2023</v>
-      </c>
-      <c r="D32" t="str">
-        <v>Mar 04 2023</v>
-      </c>
-      <c r="E32" t="str">
-        <v>Monthly</v>
-      </c>
-      <c r="F32" t="str">
-        <v>1000</v>
-      </c>
-      <c r="G32" t="str">
-        <v>2</v>
-      </c>
-      <c r="H32" t="str">
-        <v>4</v>
-      </c>
-      <c r="I32" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>A110145</v>
-      </c>
-      <c r="B33" t="str">
-        <v>Kenekennene</v>
-      </c>
-      <c r="C33" t="str">
-        <v>Feb 4 2023</v>
-      </c>
-      <c r="D33" t="str">
-        <v>Mar 04 2023</v>
-      </c>
-      <c r="E33" t="str">
-        <v>Monthly</v>
-      </c>
-      <c r="F33" t="str">
-        <v>1000</v>
-      </c>
-      <c r="G33" t="str">
-        <v>2</v>
-      </c>
-      <c r="H33" t="str">
-        <v>4</v>
-      </c>
-      <c r="I33" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>A110465</v>
-      </c>
-      <c r="B34" t="str">
-        <v>Derotg</v>
-      </c>
-      <c r="C34" t="str">
-        <v>Feb 4 2023</v>
-      </c>
-      <c r="D34" t="str">
-        <v>Mar 04 2023</v>
-      </c>
-      <c r="E34" t="str">
-        <v>Monthly</v>
-      </c>
-      <c r="F34">
-        <v>1000</v>
-      </c>
-      <c r="G34">
-        <v>2</v>
-      </c>
-      <c r="H34">
-        <v>4</v>
-      </c>
-      <c r="I34" t="str">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I34"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I25"/>
   </ignoredErrors>
 </worksheet>
 </file>